--- a/JUEGOS PLACAS/P15NBJ PLACAS ACERO/P15NBJ21 PLACAS SENCILLAS RECONSTRUCCION RECTAS.xlsx
+++ b/JUEGOS PLACAS/P15NBJ PLACAS ACERO/P15NBJ21 PLACAS SENCILLAS RECONSTRUCCION RECTAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\JUEGOS PLACAS\P15NBJ PLACAS ACERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BD2910-47B1-4EA7-AB75-19F21596F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{4295275E-CEDB-48B1-8088-BA20EF91BFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13050" yWindow="195" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1081,7 +1070,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1137,7 @@
       <c r="B7" s="13"/>
       <c r="C7" s="14">
         <f ca="1">NOW()</f>
-        <v>45377.776013888892</v>
+        <v>45397.893017013892</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>7</v>
